--- a/setup-repo/StructureDefinition-mii-pr-fall-kontakt-gesundheitseinrichtung.xlsx
+++ b/setup-repo/StructureDefinition-mii-pr-fall-kontakt-gesundheitseinrichtung.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2026.0.0-dev.1</t>
+    <t>2026.0.0</t>
   </si>
   <si>
     <t>Name</t>
